--- a/Cards/Poker/Replay/Grind.xlsx
+++ b/Cards/Poker/Replay/Grind.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CC648D-04E7-4488-9D3B-6099C7ACE1BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23420A75-D559-445F-BDFA-6F00C874CF76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
   <si>
     <t>Daily Bonus</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Start</t>
+  </si>
+  <si>
+    <t>6-Max Win</t>
+  </si>
+  <si>
+    <t>9-Max Win</t>
   </si>
 </sst>
 </file>
@@ -193,10 +199,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:f>Sheet1!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>2500</c:v>
                 </c:pt>
@@ -268,6 +274,24 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3490</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,16 +1027,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1303,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:F25"/>
+  <dimension ref="C1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1359,7 +1383,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D25" si="0">E4+D3</f>
+        <f t="shared" ref="D4:D26" si="0">E4+D3</f>
         <v>2500</v>
       </c>
       <c r="E4">
@@ -1682,6 +1706,96 @@
       </c>
       <c r="F25" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D29" si="1">E26+D25</f>
+        <v>3600</v>
+      </c>
+      <c r="E26">
+        <v>-500</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>3100</v>
+      </c>
+      <c r="E27">
+        <v>-500</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+      <c r="E28">
+        <v>-500</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>4490</v>
+      </c>
+      <c r="E29">
+        <v>1890</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:D31" si="2">E30+D29</f>
+        <v>3490</v>
+      </c>
+      <c r="E30">
+        <v>-1000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>4786</v>
+      </c>
+      <c r="E31">
+        <v>1296</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Cards/Poker/Replay/Grind.xlsx
+++ b/Cards/Poker/Replay/Grind.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23420A75-D559-445F-BDFA-6F00C874CF76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4778EA-2694-42A1-A0F7-AA90960E804F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
   <si>
     <t>Daily Bonus</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>9-Max Win</t>
+  </si>
+  <si>
+    <t>21/03/19</t>
+  </si>
+  <si>
+    <t>22/03/19</t>
+  </si>
+  <si>
+    <t>Win/Loss</t>
+  </si>
+  <si>
+    <t>MTT</t>
+  </si>
+  <si>
+    <t>Bonuses</t>
+  </si>
+  <si>
+    <t>MTT Win</t>
   </si>
 </sst>
 </file>
@@ -199,10 +217,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$31</c:f>
+              <c:f>Sheet1!$D$2:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2500</c:v>
                 </c:pt>
@@ -292,6 +310,60 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>4786</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5286</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4786</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6136</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5636</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6986</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6486</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7486</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6986</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8336</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7836</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7336</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5336</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6686</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7686</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7186</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8536</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8036</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,7 +539,704 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Win/Loss and</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Daily Bonuses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Win/Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-650</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1650</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1786</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1786</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1286</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2636</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2136</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3486</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2986</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2986</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2486</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3836</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3336</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2836</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3186</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2686</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4036</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A7A-499A-BBB2-7144AEA073BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bonuses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A7A-499A-BBB2-7144AEA073BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="396918191"/>
+        <c:axId val="399369839"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="396918191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399369839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="399369839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396918191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5891294838145236E-2"/>
+          <c:y val="0.87094852726742478"/>
+          <c:w val="0.83599518810148721"/>
+          <c:h val="0.11053295421405658"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1023,20 +1792,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1056,6 +2341,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406474CE-B239-44B8-93FD-549A5EF62BAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1327,15 +2648,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:F31"/>
+  <dimension ref="C1:H177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -1348,8 +2672,14 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -1362,8 +2692,16 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>E2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>D2</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1377,13 +2715,21 @@
       <c r="F3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f>IF(ISNUMBER(SEARCH(F3,$F$3)),G2,G2+E3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IF(ISNUMBER(SEARCH(F3,$F$3)),H2+E3,H2)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D26" si="0">E4+D3</f>
+        <f t="shared" ref="D4:D25" si="0">E4+D3</f>
         <v>2500</v>
       </c>
       <c r="E4">
@@ -1392,8 +2738,16 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f t="shared" ref="G4:G44" si="1">IF(ISNUMBER(SEARCH(F4,$F$3)),G3,G3+E4)</f>
+        <v>-500</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H44" si="2">IF(ISNUMBER(SEARCH(F4,$F$3)),H3+E4,H3)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -1407,8 +2761,16 @@
       <c r="F5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -1422,8 +2784,16 @@
       <c r="F6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-1500</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -1437,8 +2807,16 @@
       <c r="F7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-1500</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -1452,8 +2830,16 @@
       <c r="F8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-150</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -1467,8 +2853,16 @@
       <c r="F9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-650</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -1482,8 +2876,16 @@
       <c r="F10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-1150</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -1497,8 +2899,16 @@
       <c r="F11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-1650</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -1512,8 +2922,16 @@
       <c r="F12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-300</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -1527,8 +2945,16 @@
       <c r="F13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -1542,8 +2968,16 @@
       <c r="F14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -1557,8 +2991,16 @@
       <c r="F15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>6</v>
       </c>
@@ -1572,8 +3014,16 @@
       <c r="F16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -1587,8 +3037,16 @@
       <c r="F17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -1602,8 +3060,16 @@
       <c r="F18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -1617,8 +3083,16 @@
       <c r="F19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>6</v>
       </c>
@@ -1632,8 +3106,16 @@
       <c r="F20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -1647,8 +3129,16 @@
       <c r="F21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>6</v>
       </c>
@@ -1662,8 +3152,16 @@
       <c r="F22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -1677,8 +3175,16 @@
       <c r="F23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -1692,8 +3198,16 @@
       <c r="F24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>6</v>
       </c>
@@ -1707,13 +3221,21 @@
       <c r="F25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D29" si="1">E26+D25</f>
+        <f t="shared" ref="D26:D29" si="3">E26+D25</f>
         <v>3600</v>
       </c>
       <c r="E26">
@@ -1722,13 +3244,21 @@
       <c r="F26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3100</v>
       </c>
       <c r="E27">
@@ -1737,13 +3267,21 @@
       <c r="F27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2600</v>
       </c>
       <c r="E28">
@@ -1752,13 +3290,21 @@
       <c r="F28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-400</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4490</v>
       </c>
       <c r="E29">
@@ -1767,13 +3313,21 @@
       <c r="F29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1490</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:D31" si="2">E30+D29</f>
+        <f t="shared" ref="D30:D33" si="4">E30+D29</f>
         <v>3490</v>
       </c>
       <c r="E30">
@@ -1782,13 +3336,21 @@
       <c r="F30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4786</v>
       </c>
       <c r="E31">
@@ -1796,6 +3358,2220 @@
       </c>
       <c r="F31" t="s">
         <v>13</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1786</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>5286</v>
+      </c>
+      <c r="E32">
+        <v>500</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1786</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>4786</v>
+      </c>
+      <c r="E33">
+        <v>-500</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1286</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34" si="5">E34+D33</f>
+        <v>6136</v>
+      </c>
+      <c r="E34">
+        <v>1350</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>2636</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35" si="6">E35+D34</f>
+        <v>5636</v>
+      </c>
+      <c r="E35">
+        <v>-500</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>2136</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36" si="7">E36+D35</f>
+        <v>6986</v>
+      </c>
+      <c r="E36">
+        <v>1350</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>3486</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D40" si="8">E37+D36</f>
+        <v>6486</v>
+      </c>
+      <c r="E37">
+        <v>-500</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>2986</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="8"/>
+        <v>7486</v>
+      </c>
+      <c r="E38">
+        <v>1000</v>
+      </c>
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>2986</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="8"/>
+        <v>6986</v>
+      </c>
+      <c r="E39">
+        <v>-500</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>2486</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="8"/>
+        <v>8336</v>
+      </c>
+      <c r="E40">
+        <v>1350</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>3836</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="9">E41+D40</f>
+        <v>7836</v>
+      </c>
+      <c r="E41">
+        <v>-500</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>3336</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D105" si="10">E42+D41</f>
+        <v>7336</v>
+      </c>
+      <c r="E42">
+        <v>-500</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>2836</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="10"/>
+        <v>5336</v>
+      </c>
+      <c r="E43">
+        <v>-2000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>836</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="10"/>
+        <v>6686</v>
+      </c>
+      <c r="E44">
+        <v>1350</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>2186</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="10"/>
+        <v>7686</v>
+      </c>
+      <c r="E45">
+        <v>1000</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:G47" si="11">IF(ISNUMBER(SEARCH(F45,$F$3)),G44,G44+E45)</f>
+        <v>3186</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:H47" si="12">IF(ISNUMBER(SEARCH(F45,$F$3)),H44+E45,H44)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="10"/>
+        <v>7186</v>
+      </c>
+      <c r="E46">
+        <v>-500</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="11"/>
+        <v>2686</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="12"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="10"/>
+        <v>8536</v>
+      </c>
+      <c r="E47">
+        <v>1350</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="11"/>
+        <v>4036</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="12"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="10"/>
+        <v>8036</v>
+      </c>
+      <c r="E48">
+        <v>-500</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48:G111" si="13">IF(ISNUMBER(SEARCH(F48,$F$3)),G47,G47+E48)</f>
+        <v>3536</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48:H111" si="14">IF(ISNUMBER(SEARCH(F48,$F$3)),H47+E48,H47)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="E49">
+        <v>1350</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="103" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D103">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="104" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D104">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="105" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <f t="shared" si="10"/>
+        <v>9386</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="106" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D106">
+        <f t="shared" ref="D106:D169" si="15">E106+D105</f>
+        <v>9386</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="107" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D107">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="108" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D108">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="109" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D109">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="110" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="111" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="13"/>
+        <v>4886</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="112" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G112">
+        <f t="shared" ref="G112:G175" si="16">IF(ISNUMBER(SEARCH(F112,$F$3)),G111,G111+E112)</f>
+        <v>4886</v>
+      </c>
+      <c r="H112">
+        <f t="shared" ref="H112:H175" si="17">IF(ISNUMBER(SEARCH(F112,$F$3)),H111+E112,H111)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="113" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D113">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="114" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D114">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="115" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D115">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="116" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D116">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="117" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D117">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="118" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D118">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="119" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D119">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="120" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D120">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="121" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D121">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="122" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D122">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="123" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D123">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="124" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D124">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="125" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D125">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="126" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D126">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="127" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D127">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="128" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D128">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D129">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="130" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D130">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="131" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D131">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="132" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D132">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="133" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D133">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="134" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D134">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="135" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D135">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="136" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D136">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="137" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D137">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="138" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D138">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="139" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D139">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="140" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D140">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="141" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D141">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="142" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D142">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="143" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D143">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="144" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D144">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="145" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D145">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="146" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D146">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="147" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D147">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="148" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D148">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="149" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D149">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="150" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D150">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="151" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D151">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="152" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D152">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="153" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D153">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="154" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D154">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="155" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D155">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="156" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D156">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="157" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D157">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="158" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D158">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="159" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D159">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="160" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D160">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="161" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D161">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="162" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D162">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="163" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D163">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="164" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D164">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="165" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D165">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="166" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D166">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="167" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D167">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="168" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D168">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="169" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D169">
+        <f t="shared" si="15"/>
+        <v>9386</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="170" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D170">
+        <f t="shared" ref="D170:D177" si="18">E170+D169</f>
+        <v>9386</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="171" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D171">
+        <f t="shared" si="18"/>
+        <v>9386</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="172" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D172">
+        <f t="shared" si="18"/>
+        <v>9386</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="173" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D173">
+        <f t="shared" si="18"/>
+        <v>9386</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="174" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D174">
+        <f t="shared" si="18"/>
+        <v>9386</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="175" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D175">
+        <f t="shared" si="18"/>
+        <v>9386</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="16"/>
+        <v>4886</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="176" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D176">
+        <f t="shared" si="18"/>
+        <v>9386</v>
+      </c>
+      <c r="G176">
+        <f t="shared" ref="G176:G177" si="19">IF(ISNUMBER(SEARCH(F176,$F$3)),G175,G175+E176)</f>
+        <v>4886</v>
+      </c>
+      <c r="H176">
+        <f t="shared" ref="H176:H177" si="20">IF(ISNUMBER(SEARCH(F176,$F$3)),H175+E176,H175)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="177" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D177">
+        <f t="shared" si="18"/>
+        <v>9386</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="19"/>
+        <v>4886</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="20"/>
+        <v>4500</v>
       </c>
     </row>
   </sheetData>

--- a/Cards/Poker/Replay/Grind.xlsx
+++ b/Cards/Poker/Replay/Grind.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4778EA-2694-42A1-A0F7-AA90960E804F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33622C92-0D84-43C3-BBE6-D1E85A6D2550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V2" sheetId="2" r:id="rId1"/>
+    <sheet name="V1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="34">
   <si>
     <t>Daily Bonus</t>
   </si>
@@ -81,17 +82,59 @@
     <t>MTT</t>
   </si>
   <si>
-    <t>Bonuses</t>
+    <t>Not Counting</t>
   </si>
   <si>
-    <t>MTT Win</t>
+    <t>Daily Bonus MTT</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Moving Win/Loss</t>
+  </si>
+  <si>
+    <t>Grad</t>
+  </si>
+  <si>
+    <t>Intecept</t>
+  </si>
+  <si>
+    <t>Standard Dev</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>500 Sng 3-Max</t>
+  </si>
+  <si>
+    <t>Ring Games</t>
+  </si>
+  <si>
+    <t>Buy Outs</t>
+  </si>
+  <si>
+    <t>Buy Ins</t>
+  </si>
+  <si>
+    <t>Win %</t>
+  </si>
+  <si>
+    <t>Entries</t>
+  </si>
+  <si>
+    <t>Breakeven</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +142,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,15 +179,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -194,7 +286,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'V1'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -217,10 +309,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$49</c:f>
+              <c:f>'V1'!$D$2:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2500</c:v>
                 </c:pt>
@@ -364,6 +456,15 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>9386</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8886</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8386</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,9 +679,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Daily Bonuses</a:t>
+              <a:t> Extras</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -624,7 +724,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>'V1'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -645,12 +745,76 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0358486439195099E-2"/>
+                  <c:y val="-0.26524496937882763"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$49</c:f>
+              <c:f>'V1'!$G$2:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -775,24 +939,33 @@
                   <c:v>2836</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>836</c:v>
+                  <c:v>2836</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2186</c:v>
+                  <c:v>4186</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3186</c:v>
+                  <c:v>4186</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2686</c:v>
+                  <c:v>3686</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4036</c:v>
+                  <c:v>5036</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3536</c:v>
+                  <c:v>4536</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>5886</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5386</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4886</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>4886</c:v>
                 </c:pt>
               </c:numCache>
@@ -810,11 +983,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>'V1'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bonuses</c:v>
+                  <c:v>Extras</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -833,10 +1006,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$49</c:f>
+              <c:f>'V1'!$H$2:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2500</c:v>
                 </c:pt>
@@ -961,25 +1134,34 @@
                   <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4500</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4500</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4500</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4500</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4500</c:v>
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,19 +2829,282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2D1BDD-15F7-49F7-AE58-C877588E35C1}">
+  <dimension ref="H1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J2" s="2"/>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="N3">
+        <v>1350</v>
+      </c>
+      <c r="O3">
+        <v>-500</v>
+      </c>
+      <c r="P3" s="5">
+        <f>P4*(N3+O3)</f>
+        <v>566.66666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J4" s="1"/>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="6">
+        <f>O3/N3*-1</f>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="P4" s="4">
+        <f>AVERAGE(P6:P6)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <f>N6*N3+O6*O3</f>
+        <v>1200</v>
+      </c>
+      <c r="L6">
+        <f>K6+L5+I6</f>
+        <v>3700</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="4">
+        <f>N6/O6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M177"/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -2676,10 +3121,19 @@
         <v>16</v>
       </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -2700,8 +3154,18 @@
         <f>D2</f>
         <v>2500</v>
       </c>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <f>B2*$M$33+$M$34-G2</f>
+        <v>-1303.8729411764714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -2716,20 +3180,27 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>IF(ISNUMBER(SEARCH(F3,$F$3)),G2,G2+E3)</f>
+        <f t="shared" ref="G3:G34" si="0">IF(ISNUMBER(SEARCH(F3,$A$3)),G2,G2+E3)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>IF(ISNUMBER(SEARCH(F3,$F$3)),H2+E3,H2)</f>
+        <f t="shared" ref="H3:H34" si="1">IF(ISNUMBER(SEARCH(F3,$A$3)),H2+E3,H2)</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <f t="shared" ref="I3:I54" si="2">B3*$M$33+$M$34-G3</f>
+        <v>-1183.9303721488604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D25" si="0">E4+D3</f>
+        <f t="shared" ref="D4:D25" si="3">E4+D3</f>
         <v>2500</v>
       </c>
       <c r="E4">
@@ -2739,20 +3210,27 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G44" si="1">IF(ISNUMBER(SEARCH(F4,$F$3)),G3,G3+E4)</f>
+        <f t="shared" si="0"/>
         <v>-500</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H44" si="2">IF(ISNUMBER(SEARCH(F4,$F$3)),H3+E4,H3)</f>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>-563.98780312124927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="E5">
@@ -2762,20 +3240,27 @@
         <v>1</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-1000</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>-1000</v>
-      </c>
-      <c r="H5">
+        <v>3000</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+        <v>55.954765906361786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
       <c r="E6">
@@ -2785,20 +3270,27 @@
         <v>1</v>
       </c>
       <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-1500</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>-1500</v>
-      </c>
-      <c r="H6">
+        <v>3000</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+        <v>675.89733493397284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
       <c r="E7">
@@ -2808,20 +3300,27 @@
         <v>2</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-1500</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>-1500</v>
-      </c>
-      <c r="H7">
+        <v>3000</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+        <v>795.83990396158401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7</v>
+      </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2850</v>
       </c>
       <c r="E8">
@@ -2831,20 +3330,27 @@
         <v>3</v>
       </c>
       <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>-150</v>
-      </c>
-      <c r="H8">
+        <v>3000</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-434.21752701080493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>8</v>
+      </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2350</v>
       </c>
       <c r="E9">
@@ -2854,20 +3360,27 @@
         <v>1</v>
       </c>
       <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-650</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>-650</v>
-      </c>
-      <c r="H9">
+        <v>3000</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+        <v>185.72504201680613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1850</v>
       </c>
       <c r="E10">
@@ -2877,20 +3390,27 @@
         <v>1</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-1150</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>-1150</v>
-      </c>
-      <c r="H10">
+        <v>3000</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+        <v>805.6676110444173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>10</v>
+      </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1350</v>
       </c>
       <c r="E11">
@@ -2900,20 +3420,27 @@
         <v>1</v>
       </c>
       <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-1650</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>-1650</v>
-      </c>
-      <c r="H11">
+        <v>3000</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1425.6101800720282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>11</v>
+      </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2700</v>
       </c>
       <c r="E12">
@@ -2923,20 +3450,27 @@
         <v>3</v>
       </c>
       <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-300</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
-        <v>-300</v>
-      </c>
-      <c r="H12">
+        <v>3000</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+        <v>195.55274909963941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>12</v>
+      </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4050</v>
       </c>
       <c r="E13">
@@ -2946,20 +3480,27 @@
         <v>3</v>
       </c>
       <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
-        <v>1050</v>
-      </c>
-      <c r="H13">
+        <v>3000</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-1034.5046818727494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>13</v>
+      </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3550</v>
       </c>
       <c r="E14">
@@ -2969,20 +3510,27 @@
         <v>1</v>
       </c>
       <c r="G14">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
-        <v>550</v>
-      </c>
-      <c r="H14">
+        <v>3000</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-414.56211284513847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>14</v>
+      </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3050</v>
       </c>
       <c r="E15">
@@ -2992,20 +3540,27 @@
         <v>4</v>
       </c>
       <c r="G15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="H15">
+        <v>3000</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+        <v>205.3804561824727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>15</v>
+      </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4400</v>
       </c>
       <c r="E16">
@@ -3015,20 +3570,27 @@
         <v>3</v>
       </c>
       <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-      <c r="H16">
+        <v>3000</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-1024.6769747899164</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>16</v>
+      </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3900</v>
       </c>
       <c r="E17">
@@ -3038,20 +3600,27 @@
         <v>1</v>
       </c>
       <c r="G17">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="H17">
+        <v>3000</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-404.73440576230519</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>17</v>
+      </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3900</v>
       </c>
       <c r="E18">
@@ -3061,20 +3630,27 @@
         <v>5</v>
       </c>
       <c r="G18">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="H18">
+        <v>3000</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-284.79183673469402</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>18</v>
+      </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3400</v>
       </c>
       <c r="E19">
@@ -3084,20 +3660,27 @@
         <v>1</v>
       </c>
       <c r="G19">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="H19">
+        <v>3000</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+        <v>335.15073229291716</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>19</v>
+      </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4750</v>
       </c>
       <c r="E20">
@@ -3107,20 +3690,27 @@
         <v>3</v>
       </c>
       <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-      <c r="H20">
+        <v>3000</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-894.90669867947213</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>20</v>
+      </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4250</v>
       </c>
       <c r="E21">
@@ -3130,20 +3720,27 @@
         <v>1</v>
       </c>
       <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="1"/>
-        <v>1250</v>
-      </c>
-      <c r="H21">
+        <v>3000</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-274.96412965186096</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>21</v>
+      </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5600</v>
       </c>
       <c r="E22">
@@ -3153,20 +3750,27 @@
         <v>3</v>
       </c>
       <c r="G22">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="1"/>
-        <v>2600</v>
-      </c>
-      <c r="H22">
+        <v>3000</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-1505.0215606242498</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>22</v>
+      </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5100</v>
       </c>
       <c r="E23">
@@ -3176,20 +3780,27 @@
         <v>1</v>
       </c>
       <c r="G23">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="1"/>
-        <v>2100</v>
-      </c>
-      <c r="H23">
+        <v>3000</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-885.07899159663862</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>23</v>
+      </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4600</v>
       </c>
       <c r="E24">
@@ -3199,20 +3810,27 @@
         <v>1</v>
       </c>
       <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="H24">
+        <v>3000</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-265.13642256902745</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>24</v>
+      </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4100</v>
       </c>
       <c r="E25">
@@ -3222,20 +3840,27 @@
         <v>1</v>
       </c>
       <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H25">
+        <v>3000</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+        <v>354.80614645858373</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>25</v>
+      </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D29" si="3">E26+D25</f>
+        <f t="shared" ref="D26:D29" si="4">E26+D25</f>
         <v>3600</v>
       </c>
       <c r="E26">
@@ -3245,20 +3870,27 @@
         <v>1</v>
       </c>
       <c r="G26">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="H26">
+        <v>3000</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+        <v>974.74871548619444</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>26</v>
+      </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3100</v>
       </c>
       <c r="E27">
@@ -3268,20 +3900,27 @@
         <v>1</v>
       </c>
       <c r="G27">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H27">
+        <v>3000</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1594.6912845138056</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>27</v>
+      </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2600</v>
       </c>
       <c r="E28">
@@ -3291,20 +3930,27 @@
         <v>1</v>
       </c>
       <c r="G28">
+        <f t="shared" si="0"/>
+        <v>-400</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="1"/>
-        <v>-400</v>
-      </c>
-      <c r="H28">
+        <v>3000</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+        <v>2214.633853541417</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>28</v>
+      </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4490</v>
       </c>
       <c r="E29">
@@ -3314,20 +3960,27 @@
         <v>12</v>
       </c>
       <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1490</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="1"/>
-        <v>1490</v>
-      </c>
-      <c r="H29">
+        <v>3000</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+        <v>444.57642256902795</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>29</v>
+      </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:D33" si="4">E30+D29</f>
+        <f t="shared" ref="D30:D33" si="5">E30+D29</f>
         <v>3490</v>
       </c>
       <c r="E30">
@@ -3337,20 +3990,27 @@
         <v>1</v>
       </c>
       <c r="G30">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="1"/>
-        <v>490</v>
-      </c>
-      <c r="H30">
+        <v>3000</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1564.5189915966394</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>30</v>
+      </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4786</v>
       </c>
       <c r="E31">
@@ -3360,20 +4020,27 @@
         <v>13</v>
       </c>
       <c r="G31">
+        <f t="shared" si="0"/>
+        <v>1786</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="1"/>
-        <v>1786</v>
-      </c>
-      <c r="H31">
+        <v>3000</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+        <v>388.46156062424961</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>31</v>
+      </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5286</v>
       </c>
       <c r="E32">
@@ -3383,20 +4050,27 @@
         <v>0</v>
       </c>
       <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1786</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="1"/>
-        <v>1786</v>
-      </c>
-      <c r="H32">
+        <v>3500</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+        <v>508.40412965186079</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>32</v>
+      </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4786</v>
       </c>
       <c r="E33">
@@ -3406,20 +4080,34 @@
         <v>1</v>
       </c>
       <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1286</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="1"/>
-        <v>1286</v>
-      </c>
-      <c r="H33">
+        <v>3500</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1128.346698679472</v>
+      </c>
+      <c r="L33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33">
+        <f>SLOPE(G2:G51,B2:B51)</f>
+        <v>119.94256902761109</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>33</v>
+      </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34" si="5">E34+D33</f>
+        <f t="shared" ref="D34" si="6">E34+D33</f>
         <v>6136</v>
       </c>
       <c r="E34">
@@ -3429,20 +4117,34 @@
         <v>3</v>
       </c>
       <c r="G34">
+        <f t="shared" si="0"/>
+        <v>2636</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="1"/>
-        <v>2636</v>
-      </c>
-      <c r="H34">
+        <v>3500</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-101.71073229291687</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34">
+        <f>INTERCEPT(G2:G51,B2:B51)</f>
+        <v>-1423.8155102040826</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>34</v>
+      </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35" si="6">E35+D34</f>
+        <f t="shared" ref="D35" si="7">E35+D34</f>
         <v>5636</v>
       </c>
       <c r="E35">
@@ -3452,20 +4154,34 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G35:G66" si="8">IF(ISNUMBER(SEARCH(F35,$A$3)),G34,G34+E35)</f>
         <v>2136</v>
       </c>
       <c r="H35">
+        <f t="shared" ref="H35:H66" si="9">IF(ISNUMBER(SEARCH(F35,$A$3)),H34+E35,H34)</f>
+        <v>3500</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+        <v>518.2318367346943</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35">
+        <f>SQRT(SUMSQ(I2:I51)-SUM(I2:I51)^2)</f>
+        <v>5861.2991508946652</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>35</v>
+      </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36" si="7">E36+D35</f>
+        <f t="shared" ref="D36" si="10">E36+D35</f>
         <v>6986</v>
       </c>
       <c r="E36">
@@ -3475,20 +4191,27 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3486</v>
       </c>
       <c r="H36">
+        <f t="shared" si="9"/>
+        <v>3500</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-711.82559423769453</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>36</v>
+      </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D40" si="8">E37+D36</f>
+        <f t="shared" ref="D37:D40" si="11">E37+D36</f>
         <v>6486</v>
       </c>
       <c r="E37">
@@ -3498,20 +4221,27 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2986</v>
       </c>
       <c r="H37">
+        <f t="shared" si="9"/>
+        <v>3500</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-91.88302521008336</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>37</v>
+      </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
       <c r="D38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7486</v>
       </c>
       <c r="E38">
@@ -3521,20 +4251,27 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2986</v>
       </c>
       <c r="H38">
+        <f t="shared" si="9"/>
+        <v>4500</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+        <v>28.05954381752781</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>38</v>
+      </c>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6986</v>
       </c>
       <c r="E39">
@@ -3544,20 +4281,27 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2486</v>
       </c>
       <c r="H39">
+        <f t="shared" si="9"/>
+        <v>4500</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+        <v>648.00211284513807</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>39</v>
+      </c>
       <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8336</v>
       </c>
       <c r="E40">
@@ -3567,20 +4311,27 @@
         <v>3</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3836</v>
       </c>
       <c r="H40">
+        <f t="shared" si="9"/>
+        <v>4500</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-582.05531812725076</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>40</v>
+      </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="D41" si="9">E41+D40</f>
+        <f t="shared" ref="D41" si="12">E41+D40</f>
         <v>7836</v>
       </c>
       <c r="E41">
@@ -3590,20 +4341,27 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3336</v>
       </c>
       <c r="H41">
+        <f t="shared" si="9"/>
+        <v>4500</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+        <v>37.887250900360414</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>41</v>
+      </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42:D105" si="10">E42+D41</f>
+        <f t="shared" ref="D42:D105" si="13">E42+D41</f>
         <v>7336</v>
       </c>
       <c r="E42">
@@ -3613,20 +4371,27 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2836</v>
       </c>
       <c r="H42">
+        <f t="shared" si="9"/>
+        <v>4500</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+        <v>657.82981992797158</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>42</v>
+      </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5336</v>
       </c>
       <c r="E43">
@@ -3636,20 +4401,27 @@
         <v>17</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
-        <v>836</v>
+        <f t="shared" si="8"/>
+        <v>2836</v>
       </c>
       <c r="H43">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+        <v>777.77238895558276</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>43</v>
+      </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6686</v>
       </c>
       <c r="E44">
@@ -3659,43 +4431,57 @@
         <v>3</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
-        <v>2186</v>
+        <f t="shared" si="8"/>
+        <v>4186</v>
       </c>
       <c r="H44">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+        <v>-452.28504201680607</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>44</v>
+      </c>
       <c r="C45" t="s">
         <v>15</v>
       </c>
       <c r="D45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7686</v>
       </c>
       <c r="E45">
         <v>1000</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" ref="G45:G47" si="11">IF(ISNUMBER(SEARCH(F45,$F$3)),G44,G44+E45)</f>
-        <v>3186</v>
+        <f t="shared" si="8"/>
+        <v>4186</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45:H47" si="12">IF(ISNUMBER(SEARCH(F45,$F$3)),H44+E45,H44)</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>3500</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>-332.3424729891949</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>45</v>
+      </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
       <c r="D46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7186</v>
       </c>
       <c r="E46">
@@ -3705,20 +4491,27 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <f t="shared" si="11"/>
-        <v>2686</v>
+        <f t="shared" si="8"/>
+        <v>3686</v>
       </c>
       <c r="H46">
-        <f t="shared" si="12"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>3500</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>287.60009603841627</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>46</v>
+      </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8536</v>
       </c>
       <c r="E47">
@@ -3728,20 +4521,27 @@
         <v>3</v>
       </c>
       <c r="G47">
-        <f t="shared" si="11"/>
-        <v>4036</v>
+        <f t="shared" si="8"/>
+        <v>5036</v>
       </c>
       <c r="H47">
-        <f t="shared" si="12"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>3500</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>-942.45733493397256</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>47</v>
+      </c>
       <c r="C48" t="s">
         <v>15</v>
       </c>
       <c r="D48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8036</v>
       </c>
       <c r="E48">
@@ -3751,20 +4551,27 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <f t="shared" ref="G48:G111" si="13">IF(ISNUMBER(SEARCH(F48,$F$3)),G47,G47+E48)</f>
-        <v>3536</v>
+        <f t="shared" si="8"/>
+        <v>4536</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="H48:H111" si="14">IF(ISNUMBER(SEARCH(F48,$F$3)),H47+E48,H47)</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>3500</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>-322.51476590636139</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>48</v>
+      </c>
       <c r="C49" t="s">
         <v>15</v>
       </c>
       <c r="D49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9386</v>
       </c>
       <c r="E49">
@@ -3774,1804 +4581,2224 @@
         <v>3</v>
       </c>
       <c r="G49">
+        <f t="shared" si="8"/>
+        <v>5886</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="9"/>
+        <v>3500</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>-1552.5721968787502</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="13"/>
+        <v>8886</v>
+      </c>
+      <c r="E50">
+        <v>-500</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="8"/>
+        <v>5386</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="9"/>
+        <v>3500</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>-932.62962785113996</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="13"/>
+        <v>8386</v>
+      </c>
+      <c r="E51">
+        <v>-500</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="8"/>
         <v>4886</v>
       </c>
-      <c r="H49">
+      <c r="H51">
+        <f t="shared" si="9"/>
+        <v>3500</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>-312.68705882352879</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="13"/>
+        <v>7386</v>
+      </c>
+      <c r="E52">
+        <v>-1000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="8"/>
+        <v>4886</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>-192.74448979591762</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="13"/>
+        <v>6886</v>
+      </c>
+      <c r="E53">
+        <v>-500</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="8"/>
+        <v>4386</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>427.19807923169355</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="E54">
+        <v>-500</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="8"/>
+        <v>3886</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>1047.1406482593047</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="8"/>
+        <v>3886</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="8"/>
+        <v>3886</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="8"/>
+        <v>3886</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="8"/>
+        <v>3886</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="8"/>
+        <v>3886</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="8"/>
+        <v>3886</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="8"/>
+        <v>3886</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="8"/>
+        <v>3886</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="8"/>
+        <v>3886</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="8"/>
+        <v>3886</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="8"/>
+        <v>3886</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="8"/>
+        <v>3886</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G98" si="14">IF(ISNUMBER(SEARCH(F67,$A$3)),G66,G66+E67)</f>
+        <v>3886</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H98" si="15">IF(ISNUMBER(SEARCH(F67,$A$3)),H66+E67,H66)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="13"/>
+        <v>6386</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D50">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G50">
+        <v>3886</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="D69">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H50">
+        <v>6386</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D51">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G51">
+        <v>3886</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="D70">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H51">
+        <v>6386</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D52">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G52">
+        <v>3886</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="D71">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H52">
+        <v>6386</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D53">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G53">
+        <v>3886</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="D72">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H53">
+        <v>6386</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D54">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G54">
+        <v>3886</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="D73">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H54">
+        <v>6386</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D55">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G55">
+        <v>3886</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="D74">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H55">
+        <v>6386</v>
+      </c>
+      <c r="G74">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D56">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G56">
+        <v>3886</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H56">
+        <v>6386</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D57">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G57">
+        <v>3886</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="D76">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H57">
+        <v>6386</v>
+      </c>
+      <c r="G76">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D58">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G58">
+        <v>3886</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="D77">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H58">
+        <v>6386</v>
+      </c>
+      <c r="G77">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D59">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G59">
+        <v>3886</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="D78">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H59">
+        <v>6386</v>
+      </c>
+      <c r="G78">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D60">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G60">
+        <v>3886</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="D79">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H60">
+        <v>6386</v>
+      </c>
+      <c r="G79">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D61">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G61">
+        <v>3886</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="D80">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H61">
+        <v>6386</v>
+      </c>
+      <c r="G80">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D62">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G62">
+        <v>3886</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="D81">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H62">
+        <v>6386</v>
+      </c>
+      <c r="G81">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D63">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G63">
+        <v>3886</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="D82">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H63">
+        <v>6386</v>
+      </c>
+      <c r="G82">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D64">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G64">
+        <v>3886</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="D83">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H64">
+        <v>6386</v>
+      </c>
+      <c r="G83">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D65">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G65">
+        <v>3886</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="D84">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H65">
+        <v>6386</v>
+      </c>
+      <c r="G84">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D66">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G66">
+        <v>3886</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="D85">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H66">
+        <v>6386</v>
+      </c>
+      <c r="G85">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D67">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G67">
+        <v>3886</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="D86">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H67">
+        <v>6386</v>
+      </c>
+      <c r="G86">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D68">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G68">
+        <v>3886</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="D87">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H68">
+        <v>6386</v>
+      </c>
+      <c r="G87">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D69">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G69">
+        <v>3886</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="D88">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H69">
+        <v>6386</v>
+      </c>
+      <c r="G88">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D70">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G70">
+        <v>3886</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="D89">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H70">
+        <v>6386</v>
+      </c>
+      <c r="G89">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D71">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G71">
+        <v>3886</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="D90">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H71">
+        <v>6386</v>
+      </c>
+      <c r="G90">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D72">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G72">
+        <v>3886</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="D91">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H72">
+        <v>6386</v>
+      </c>
+      <c r="G91">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D73">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G73">
+        <v>3886</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="D92">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H73">
+        <v>6386</v>
+      </c>
+      <c r="G92">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D74">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G74">
+        <v>3886</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="D93">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H74">
+        <v>6386</v>
+      </c>
+      <c r="G93">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D75">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G75">
+        <v>3886</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="D94">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H75">
+        <v>6386</v>
+      </c>
+      <c r="G94">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D76">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G76">
+        <v>3886</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="D95">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H76">
+        <v>6386</v>
+      </c>
+      <c r="G95">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D77">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G77">
+        <v>3886</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H77">
+        <v>6386</v>
+      </c>
+      <c r="G96">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D78">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G78">
+        <v>3886</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H78">
+        <v>6386</v>
+      </c>
+      <c r="G97">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D79">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G79">
+        <v>3886</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="D98">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H79">
+        <v>6386</v>
+      </c>
+      <c r="G98">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D80">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G80">
+        <v>3886</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="D99">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D81">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G81">
+        <v>6386</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ref="G99:G130" si="16">IF(ISNUMBER(SEARCH(F99,$A$3)),G98,G98+E99)</f>
+        <v>3886</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ref="H99:H130" si="17">IF(ISNUMBER(SEARCH(F99,$A$3)),H98+E99,H98)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="D100">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D82">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G82">
+        <v>6386</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="16"/>
+        <v>3886</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="D101">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D83">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G83">
+        <v>6386</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="16"/>
+        <v>3886</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="D102">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D84">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G84">
+        <v>6386</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="16"/>
+        <v>3886</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="D103">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D85">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G85">
+        <v>6386</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="16"/>
+        <v>3886</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="D104">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D86">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G86">
+        <v>6386</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="16"/>
+        <v>3886</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="D105">
         <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D87">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D88">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D89">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D90">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D91">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D92">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D93">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D94">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D95">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="96" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D96">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D97">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D98">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D99">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D100">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D101">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D102">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D103">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D104">
-        <f t="shared" si="10"/>
-        <v>9386</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="13"/>
-        <v>4886</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D105">
-        <f t="shared" si="10"/>
-        <v>9386</v>
+        <v>6386</v>
       </c>
       <c r="G105">
-        <f t="shared" si="13"/>
-        <v>4886</v>
+        <f t="shared" si="16"/>
+        <v>3886</v>
       </c>
       <c r="H105">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="106" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>105</v>
+      </c>
       <c r="D106">
-        <f t="shared" ref="D106:D169" si="15">E106+D105</f>
-        <v>9386</v>
+        <f t="shared" ref="D106:D169" si="18">E106+D105</f>
+        <v>6386</v>
       </c>
       <c r="G106">
-        <f t="shared" si="13"/>
-        <v>4886</v>
+        <f t="shared" si="16"/>
+        <v>3886</v>
       </c>
       <c r="H106">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>106</v>
+      </c>
       <c r="D107">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G107">
-        <f t="shared" si="13"/>
-        <v>4886</v>
+        <f t="shared" si="16"/>
+        <v>3886</v>
       </c>
       <c r="H107">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>107</v>
+      </c>
       <c r="D108">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G108">
-        <f t="shared" si="13"/>
-        <v>4886</v>
+        <f t="shared" si="16"/>
+        <v>3886</v>
       </c>
       <c r="H108">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="109" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>108</v>
+      </c>
       <c r="D109">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G109">
-        <f t="shared" si="13"/>
-        <v>4886</v>
+        <f t="shared" si="16"/>
+        <v>3886</v>
       </c>
       <c r="H109">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="110" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>109</v>
+      </c>
       <c r="D110">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G110">
-        <f t="shared" si="13"/>
-        <v>4886</v>
+        <f t="shared" si="16"/>
+        <v>3886</v>
       </c>
       <c r="H110">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>110</v>
+      </c>
       <c r="D111">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G111">
-        <f t="shared" si="13"/>
-        <v>4886</v>
+        <f t="shared" si="16"/>
+        <v>3886</v>
       </c>
       <c r="H111">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>111</v>
+      </c>
       <c r="D112">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G112">
-        <f t="shared" ref="G112:G175" si="16">IF(ISNUMBER(SEARCH(F112,$F$3)),G111,G111+E112)</f>
-        <v>4886</v>
+        <f t="shared" si="16"/>
+        <v>3886</v>
       </c>
       <c r="H112">
-        <f t="shared" ref="H112:H175" si="17">IF(ISNUMBER(SEARCH(F112,$F$3)),H111+E112,H111)</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>112</v>
+      </c>
       <c r="D113">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G113">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H113">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>113</v>
+      </c>
       <c r="D114">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G114">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H114">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>114</v>
+      </c>
       <c r="D115">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G115">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H115">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>115</v>
+      </c>
       <c r="D116">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G116">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H116">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>116</v>
+      </c>
       <c r="D117">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G117">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H117">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>117</v>
+      </c>
       <c r="D118">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G118">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H118">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>118</v>
+      </c>
       <c r="D119">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G119">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H119">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>119</v>
+      </c>
       <c r="D120">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G120">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H120">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="121" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>120</v>
+      </c>
       <c r="D121">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G121">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H121">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>121</v>
+      </c>
       <c r="D122">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G122">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H122">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>122</v>
+      </c>
       <c r="D123">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G123">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H123">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>123</v>
+      </c>
       <c r="D124">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G124">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H124">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>124</v>
+      </c>
       <c r="D125">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G125">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H125">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>125</v>
+      </c>
       <c r="D126">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G126">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H126">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>126</v>
+      </c>
       <c r="D127">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G127">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H127">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="128" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>127</v>
+      </c>
       <c r="D128">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G128">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H128">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="129" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>128</v>
+      </c>
       <c r="D129">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G129">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H129">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="130" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>129</v>
+      </c>
       <c r="D130">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G130">
         <f t="shared" si="16"/>
-        <v>4886</v>
+        <v>3886</v>
       </c>
       <c r="H130">
         <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="131" spans="4:8" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>130</v>
+      </c>
       <c r="D131">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G131">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" ref="G131:G162" si="19">IF(ISNUMBER(SEARCH(F131,$A$3)),G130,G130+E131)</f>
+        <v>3886</v>
       </c>
       <c r="H131">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="132" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H131:H162" si="20">IF(ISNUMBER(SEARCH(F131,$A$3)),H130+E131,H130)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>131</v>
+      </c>
       <c r="D132">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G132">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H132">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="133" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>132</v>
+      </c>
       <c r="D133">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G133">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H133">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="134" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>133</v>
+      </c>
       <c r="D134">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G134">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H134">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="135" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>134</v>
+      </c>
       <c r="D135">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G135">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H135">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="136" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>135</v>
+      </c>
       <c r="D136">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G136">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H136">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="137" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>136</v>
+      </c>
       <c r="D137">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G137">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H137">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="138" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>137</v>
+      </c>
       <c r="D138">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G138">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H138">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="139" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>138</v>
+      </c>
       <c r="D139">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G139">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H139">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="140" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>139</v>
+      </c>
       <c r="D140">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G140">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H140">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="141" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>140</v>
+      </c>
       <c r="D141">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G141">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H141">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="142" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>141</v>
+      </c>
       <c r="D142">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G142">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H142">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="143" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>142</v>
+      </c>
       <c r="D143">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G143">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H143">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="144" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>143</v>
+      </c>
       <c r="D144">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G144">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H144">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="145" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>144</v>
+      </c>
       <c r="D145">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G145">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H145">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="146" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>145</v>
+      </c>
       <c r="D146">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G146">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H146">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="147" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>146</v>
+      </c>
       <c r="D147">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G147">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H147">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="148" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>147</v>
+      </c>
       <c r="D148">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G148">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H148">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="149" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>148</v>
+      </c>
       <c r="D149">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G149">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H149">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>149</v>
+      </c>
       <c r="D150">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G150">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H150">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="151" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>150</v>
+      </c>
       <c r="D151">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G151">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H151">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="152" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>151</v>
+      </c>
       <c r="D152">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G152">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H152">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>152</v>
+      </c>
       <c r="D153">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G153">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H153">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="154" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>153</v>
+      </c>
       <c r="D154">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G154">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H154">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="155" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>154</v>
+      </c>
       <c r="D155">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G155">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H155">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="156" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>155</v>
+      </c>
       <c r="D156">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G156">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H156">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="157" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>156</v>
+      </c>
       <c r="D157">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G157">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H157">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="158" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>157</v>
+      </c>
       <c r="D158">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G158">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H158">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="159" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>158</v>
+      </c>
       <c r="D159">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G159">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H159">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="160" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>159</v>
+      </c>
       <c r="D160">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G160">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H160">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="161" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>160</v>
+      </c>
       <c r="D161">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G161">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H161">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="162" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>161</v>
+      </c>
       <c r="D162">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G162">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="19"/>
+        <v>3886</v>
       </c>
       <c r="H162">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="163" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>162</v>
+      </c>
       <c r="D163">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G163">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" ref="G163:G177" si="21">IF(ISNUMBER(SEARCH(F163,$A$3)),G162,G162+E163)</f>
+        <v>3886</v>
       </c>
       <c r="H163">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="164" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H163:H177" si="22">IF(ISNUMBER(SEARCH(F163,$A$3)),H162+E163,H162)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>163</v>
+      </c>
       <c r="D164">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G164">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H164">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="165" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>164</v>
+      </c>
       <c r="D165">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G165">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H165">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="166" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>165</v>
+      </c>
       <c r="D166">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G166">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H166">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="167" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D167">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G167">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H167">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="168" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D168">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G168">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H168">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="169" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D169">
-        <f t="shared" si="15"/>
-        <v>9386</v>
+        <f t="shared" si="18"/>
+        <v>6386</v>
       </c>
       <c r="G169">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H169">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="170" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D170">
-        <f t="shared" ref="D170:D177" si="18">E170+D169</f>
-        <v>9386</v>
+        <f t="shared" ref="D170:D177" si="23">E170+D169</f>
+        <v>6386</v>
       </c>
       <c r="G170">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H170">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="171" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D171">
-        <f t="shared" si="18"/>
-        <v>9386</v>
+        <f t="shared" si="23"/>
+        <v>6386</v>
       </c>
       <c r="G171">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H171">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="172" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D172">
-        <f t="shared" si="18"/>
-        <v>9386</v>
+        <f t="shared" si="23"/>
+        <v>6386</v>
       </c>
       <c r="G172">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H172">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="173" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D173">
-        <f t="shared" si="18"/>
-        <v>9386</v>
+        <f t="shared" si="23"/>
+        <v>6386</v>
       </c>
       <c r="G173">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H173">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="174" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D174">
-        <f t="shared" si="18"/>
-        <v>9386</v>
+        <f t="shared" si="23"/>
+        <v>6386</v>
       </c>
       <c r="G174">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H174">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="175" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D175">
-        <f t="shared" si="18"/>
-        <v>9386</v>
+        <f t="shared" si="23"/>
+        <v>6386</v>
       </c>
       <c r="G175">
-        <f t="shared" si="16"/>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H175">
-        <f t="shared" si="17"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="176" spans="4:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D176">
-        <f t="shared" si="18"/>
-        <v>9386</v>
+        <f t="shared" si="23"/>
+        <v>6386</v>
       </c>
       <c r="G176">
-        <f t="shared" ref="G176:G177" si="19">IF(ISNUMBER(SEARCH(F176,$F$3)),G175,G175+E176)</f>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H176">
-        <f t="shared" ref="H176:H177" si="20">IF(ISNUMBER(SEARCH(F176,$F$3)),H175+E176,H175)</f>
-        <v>4500</v>
+        <f t="shared" si="22"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D177">
-        <f t="shared" si="18"/>
-        <v>9386</v>
+        <f t="shared" si="23"/>
+        <v>6386</v>
       </c>
       <c r="G177">
-        <f t="shared" si="19"/>
-        <v>4886</v>
+        <f t="shared" si="21"/>
+        <v>3886</v>
       </c>
       <c r="H177">
-        <f t="shared" si="20"/>
-        <v>4500</v>
+        <f t="shared" si="22"/>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>

--- a/Cards/Poker/Replay/Grind.xlsx
+++ b/Cards/Poker/Replay/Grind.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33622C92-0D84-43C3-BBE6-D1E85A6D2550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8FCF0-CF13-4379-8613-9AF1E8EF1FB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="37">
   <si>
     <t>Daily Bonus</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Ring Games</t>
   </si>
   <si>
-    <t>Buy Outs</t>
-  </si>
-  <si>
     <t>Buy Ins</t>
   </si>
   <si>
@@ -127,7 +124,19 @@
     <t>Entries</t>
   </si>
   <si>
-    <t>Breakeven</t>
+    <t>23/03/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Breakeven %</t>
+  </si>
+  <si>
+    <t>Expected Profit Per Game</t>
+  </si>
+  <si>
+    <t>Cash Out</t>
   </si>
 </sst>
 </file>
@@ -200,11 +209,8 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,6 +218,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -2830,19 +2840,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2D1BDD-15F7-49F7-AE58-C877588E35C1}">
-  <dimension ref="H1:T28"/>
+  <dimension ref="C1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.3">
       <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
@@ -2851,35 +2865,35 @@
       <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="S1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="J2" s="2"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="J2" s="7"/>
       <c r="N2" t="s">
         <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="8:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
       <c r="J3" s="1"/>
       <c r="N3">
         <v>1350</v>
@@ -2888,29 +2902,32 @@
         <v>-500</v>
       </c>
       <c r="P3" s="5">
-        <f>P4*(N3+O3)</f>
-        <v>566.66666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="8:20" x14ac:dyDescent="0.3">
+        <f>SUM(N6:N17)/SUM(O6:O17)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="J4" s="1"/>
-      <c r="N4" t="s">
-        <v>33</v>
+      <c r="N4" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="O4" s="6">
+        <f>O3+P3*N3</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5">
         <f>O3/N3*-1</f>
         <v>0.37037037037037035</v>
       </c>
-      <c r="P4" s="4">
-        <f>AVERAGE(P6:P6)</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="5" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="2"/>
       <c r="K5">
         <v>0</v>
       </c>
@@ -2918,18 +2935,18 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K6">
-        <f>N6*N3+O6*O3</f>
+        <f>N6*$N$3+O6*$O$3+S6+T6</f>
         <v>1200</v>
       </c>
       <c r="L6">
@@ -2942,7 +2959,7 @@
       <c r="O6">
         <v>3</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <f>N6/O6</f>
         <v>0.66666666666666663</v>
       </c>
@@ -2953,68 +2970,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="8:20" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7">
+        <f>N7*$N$3+O7*$O$3+S7+T7</f>
+        <v>2083</v>
+      </c>
+      <c r="L7">
+        <f>K7+L6+I7</f>
+        <v>7283</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7" s="3">
+        <f>N7/O7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="S7">
+        <v>2783</v>
+      </c>
+      <c r="T7">
+        <v>-1250</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H8">
         <v>3</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H9">
         <v>4</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H10">
         <v>5</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H11">
         <v>6</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J11" s="2"/>
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H12">
         <v>7</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H13">
         <v>8</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H14">
         <v>9</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H15">
         <v>10</v>
       </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H16">
         <v>11</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17">
